--- a/templates/Suivi des achats en carte bancaire.xlsx
+++ b/templates/Suivi des achats en carte bancaire.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,14 +680,8 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H11" s="7" t="n">
-        <f aca="false">D5+D16</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <f aca="false">F5+F16</f>
-        <v>0</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
@@ -875,7 +869,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.54"/>

--- a/templates/Suivi des achats en carte bancaire.xlsx
+++ b/templates/Suivi des achats en carte bancaire.xlsx
@@ -508,12 +508,12 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.54"/>
@@ -522,7 +522,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="12" style="1" width="12.56"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="17" style="1" width="10.82"/>
   </cols>
@@ -869,7 +869,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.54"/>
